--- a/biology/Zoologie/Coryphaeschna/Coryphaeschna.xlsx
+++ b/biology/Zoologie/Coryphaeschna/Coryphaeschna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coryphaeschna est un genre de libellules de la famille des Aeshnidae (sous-ordre des Anisoptères, ordre des Odonates)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coryphaeschna est un genre de libellules de la famille des Aeshnidae (sous-ordre des Anisoptères, ordre des Odonates).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Coryphaeschna a été créé en 1903 par Edward Bruce Williamson (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Coryphaeschna a été créé en 1903 par Edward Bruce Williamson (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (28 avril 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (28 avril 2021) :
 Coryphaeschna adnexa (Hagen, 1861)
 Coryphaeschna amazonica De Marmels, 1989
 Coryphaeschna apeora Paulson, 1994
@@ -580,7 +596,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre Coryphaeschna se compose du grec ancien κόρυς, kórys, « casque », et de aeschna.
 </t>
@@ -611,7 +629,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) E. B. Williamson, « A proposed new genus of Odonata (Dragonflies) of the Subfamily Aeschninae, Group Aeschna », Entomological news, and proceedings of the Entomological Section of the Academy of Natural Sciences of Philadelphia, Philadelphie, Inconnu, vol. 14,‎ janvier 1903, p. 2-10 (OCLC 1568007, lire en ligne)</t>
         </is>
